--- a/media/chargeAccount_1.xlsx
+++ b/media/chargeAccount_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -553,7 +553,7 @@
     <row r="11">
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="G11" s="3" t="n"/>
@@ -572,7 +572,7 @@
     <row r="14">
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>1234567</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="G14" s="3" t="n"/>
@@ -639,7 +639,7 @@
     <row r="23">
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Servicios de consultoría</t>
+          <t>Concepto de prueba</t>
         </is>
       </c>
       <c r="G23" s="3" t="n"/>
@@ -737,6 +737,11 @@
           <t>SI</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G41" s="3" t="n"/>
     </row>
     <row r="42">
@@ -745,11 +750,6 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="G42" s="3" t="n"/>
     </row>
     <row r="43">
@@ -766,6 +766,11 @@
           <t>SI</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G44" s="3" t="n"/>
     </row>
     <row r="45">
@@ -774,11 +779,6 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="G45" s="3" t="n"/>
     </row>
     <row r="46">
@@ -795,11 +795,11 @@
       </c>
       <c r="C48" s="8" t="inlineStr">
         <is>
-          <t>Cali</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E48" s="9" t="n">
-        <v>-692739</v>
+        <v>45017</v>
       </c>
       <c r="G48" s="3" t="n"/>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C51" s="8" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="G51" s="3" t="n"/>
@@ -830,7 +830,7 @@
       </c>
       <c r="C52" s="8" t="inlineStr">
         <is>
-          <t>1234567</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="G52" s="3" t="n"/>
@@ -843,7 +843,7 @@
       </c>
       <c r="C53" s="8" t="inlineStr">
         <is>
-          <t>Av. Siempre Viva 1</t>
+          <t>Calle 123</t>
         </is>
       </c>
       <c r="G53" s="3" t="n"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="C54" s="8" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>1234567890</t>
         </is>
       </c>
       <c r="G54" s="3" t="n"/>
@@ -888,7 +888,7 @@
     <row r="58">
       <c r="B58" s="10" t="inlineStr">
         <is>
-          <t>Bancolombia</t>
+          <t>Banco de Prueba</t>
         </is>
       </c>
       <c r="D58" s="10" t="inlineStr">

--- a/media/chargeAccount_1.xlsx
+++ b/media/chargeAccount_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/media/chargeAccount_1.xlsx
+++ b/media/chargeAccount_1.xlsx
@@ -553,7 +553,7 @@
     <row r="11">
       <c r="B11" s="5" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="G11" s="3" t="n"/>
@@ -572,7 +572,7 @@
     <row r="14">
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>1234567</t>
         </is>
       </c>
       <c r="G14" s="3" t="n"/>
@@ -639,7 +639,7 @@
     <row r="23">
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>Concepto de prueba</t>
+          <t>Servicios de consultoría</t>
         </is>
       </c>
       <c r="G23" s="3" t="n"/>
@@ -737,11 +737,6 @@
           <t>SI</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="G41" s="3" t="n"/>
     </row>
     <row r="42">
@@ -750,6 +745,11 @@
           <t>NO</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G42" s="3" t="n"/>
     </row>
     <row r="43">
@@ -766,11 +766,6 @@
           <t>SI</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
       <c r="G44" s="3" t="n"/>
     </row>
     <row r="45">
@@ -779,6 +774,11 @@
           <t>NO</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G45" s="3" t="n"/>
     </row>
     <row r="46">
@@ -795,11 +795,11 @@
       </c>
       <c r="C48" s="8" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Cali</t>
         </is>
       </c>
       <c r="E48" s="9" t="n">
-        <v>45017</v>
+        <v>-692739</v>
       </c>
       <c r="G48" s="3" t="n"/>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="C51" s="8" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="G51" s="3" t="n"/>
@@ -830,7 +830,7 @@
       </c>
       <c r="C52" s="8" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>1234567</t>
         </is>
       </c>
       <c r="G52" s="3" t="n"/>
@@ -843,7 +843,7 @@
       </c>
       <c r="C53" s="8" t="inlineStr">
         <is>
-          <t>Calle 123</t>
+          <t>Av. Siempre Viva 1</t>
         </is>
       </c>
       <c r="G53" s="3" t="n"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="C54" s="8" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="G54" s="3" t="n"/>
@@ -888,7 +888,7 @@
     <row r="58">
       <c r="B58" s="10" t="inlineStr">
         <is>
-          <t>Banco de Prueba</t>
+          <t>Bancolombia</t>
         </is>
       </c>
       <c r="D58" s="10" t="inlineStr">
